--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd160</t>
   </si>
   <si>
     <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H2">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I2">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J2">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N2">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q2">
-        <v>2.851958449918702</v>
+        <v>4.345301945944001</v>
       </c>
       <c r="R2">
-        <v>2.851958449918702</v>
+        <v>39.10771751349601</v>
       </c>
       <c r="S2">
-        <v>0.005644170378198342</v>
+        <v>0.006598036904278344</v>
       </c>
       <c r="T2">
-        <v>0.005644170378198342</v>
+        <v>0.006598036904278345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H3">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I3">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J3">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N3">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O3">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P3">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q3">
-        <v>2.149558351485062</v>
+        <v>2.844174726608</v>
       </c>
       <c r="R3">
-        <v>2.149558351485062</v>
+        <v>25.597572539472</v>
       </c>
       <c r="S3">
-        <v>0.004254084968876983</v>
+        <v>0.004318680276267548</v>
       </c>
       <c r="T3">
-        <v>0.004254084968876983</v>
+        <v>0.004318680276267549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H4">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I4">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J4">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N4">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O4">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P4">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q4">
-        <v>15.10238361396087</v>
+        <v>20.123650498744</v>
       </c>
       <c r="R4">
-        <v>15.10238361396087</v>
+        <v>181.112854488696</v>
       </c>
       <c r="S4">
-        <v>0.02988838292385916</v>
+        <v>0.03055635495329588</v>
       </c>
       <c r="T4">
-        <v>0.02988838292385916</v>
+        <v>0.03055635495329589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H5">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I5">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J5">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N5">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O5">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P5">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q5">
-        <v>20.86199774061744</v>
+        <v>26.669129178344</v>
       </c>
       <c r="R5">
-        <v>20.86199774061744</v>
+        <v>240.022162605096</v>
       </c>
       <c r="S5">
-        <v>0.04128695131620528</v>
+        <v>0.04049520625095539</v>
       </c>
       <c r="T5">
-        <v>0.04128695131620528</v>
+        <v>0.04049520625095539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H6">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I6">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J6">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N6">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O6">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P6">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q6">
-        <v>9.338277563485372</v>
+        <v>12.06462075363</v>
       </c>
       <c r="R6">
-        <v>9.338277563485372</v>
+        <v>108.58158678267</v>
       </c>
       <c r="S6">
-        <v>0.01848092478651672</v>
+        <v>0.01831928228667197</v>
       </c>
       <c r="T6">
-        <v>0.01848092478651672</v>
+        <v>0.01831928228667196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.893790325746513</v>
+        <v>1.127766</v>
       </c>
       <c r="H7">
-        <v>0.893790325746513</v>
+        <v>3.383298</v>
       </c>
       <c r="I7">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="J7">
-        <v>0.1013168827837255</v>
+        <v>0.1022558006241316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.996332114094014</v>
+        <v>1.149381666666667</v>
       </c>
       <c r="N7">
-        <v>0.996332114094014</v>
+        <v>3.448145</v>
       </c>
       <c r="O7">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="P7">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="Q7">
-        <v>0.8905120048078007</v>
+        <v>1.29623356469</v>
       </c>
       <c r="R7">
-        <v>0.8905120048078007</v>
+        <v>11.66610208221</v>
       </c>
       <c r="S7">
-        <v>0.001762368410069048</v>
+        <v>0.001968239952662455</v>
       </c>
       <c r="T7">
-        <v>0.001762368410069048</v>
+        <v>0.001968239952662455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H8">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I8">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J8">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N8">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O8">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P8">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q8">
-        <v>5.61959170619942</v>
+        <v>3.335265560488445</v>
       </c>
       <c r="R8">
-        <v>5.61959170619942</v>
+        <v>30.017390044396</v>
       </c>
       <c r="S8">
-        <v>0.01112145692255931</v>
+        <v>0.005064367339124138</v>
       </c>
       <c r="T8">
-        <v>0.01112145692255931</v>
+        <v>0.005064367339124138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H9">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I9">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J9">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N9">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O9">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P9">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q9">
-        <v>4.2355597026112</v>
+        <v>2.183065327030222</v>
       </c>
       <c r="R9">
-        <v>4.2355597026112</v>
+        <v>19.647587943272</v>
       </c>
       <c r="S9">
-        <v>0.008382387411447102</v>
+        <v>0.003314831919940761</v>
       </c>
       <c r="T9">
-        <v>0.008382387411447102</v>
+        <v>0.003314831919940761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H10">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I10">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J10">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N10">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q10">
-        <v>29.75822796551466</v>
+        <v>15.44604248328844</v>
       </c>
       <c r="R10">
-        <v>29.75822796551466</v>
+        <v>139.014382349596</v>
       </c>
       <c r="S10">
-        <v>0.05889304200607103</v>
+        <v>0.02345373453849774</v>
       </c>
       <c r="T10">
-        <v>0.05889304200607103</v>
+        <v>0.02345373453849775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H11">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I11">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J11">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N11">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O11">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P11">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q11">
-        <v>41.10715900551313</v>
+        <v>20.47006840566622</v>
       </c>
       <c r="R11">
-        <v>41.10715900551313</v>
+        <v>184.230615650996</v>
       </c>
       <c r="S11">
-        <v>0.08135315197085718</v>
+        <v>0.03108236630132412</v>
       </c>
       <c r="T11">
-        <v>0.08135315197085718</v>
+        <v>0.03108236630132412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H12">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I12">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J12">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N12">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O12">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P12">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q12">
-        <v>18.40044589269751</v>
+        <v>9.260280321255001</v>
       </c>
       <c r="R12">
-        <v>18.40044589269751</v>
+        <v>83.342522891295</v>
       </c>
       <c r="S12">
-        <v>0.03641541539855363</v>
+        <v>0.01406108759844291</v>
       </c>
       <c r="T12">
-        <v>0.03641541539855363</v>
+        <v>0.0140610875984429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.76115353356202</v>
+        <v>0.8656243333333333</v>
       </c>
       <c r="H13">
-        <v>1.76115353356202</v>
+        <v>2.596873</v>
       </c>
       <c r="I13">
-        <v>0.1996380817559362</v>
+        <v>0.07848712343228131</v>
       </c>
       <c r="J13">
-        <v>0.1996380817559362</v>
+        <v>0.0784871234322813</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.996332114094014</v>
+        <v>1.149381666666667</v>
       </c>
       <c r="N13">
-        <v>0.996332114094014</v>
+        <v>3.448145</v>
       </c>
       <c r="O13">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="P13">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="Q13">
-        <v>1.754693823337991</v>
+        <v>0.994932738953889</v>
       </c>
       <c r="R13">
-        <v>1.754693823337991</v>
+        <v>8.954394650585</v>
       </c>
       <c r="S13">
-        <v>0.003472628046447941</v>
+        <v>0.001510735734951638</v>
       </c>
       <c r="T13">
-        <v>0.003472628046447941</v>
+        <v>0.001510735734951638</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H14">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I14">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J14">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N14">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O14">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P14">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q14">
-        <v>8.251770410907092</v>
+        <v>8.086211886946666</v>
       </c>
       <c r="R14">
-        <v>8.251770410907092</v>
+        <v>72.77590698252001</v>
       </c>
       <c r="S14">
-        <v>0.0163306720412645</v>
+        <v>0.0122783468466879</v>
       </c>
       <c r="T14">
-        <v>0.0163306720412645</v>
+        <v>0.01227834684668791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H15">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I15">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J15">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N15">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O15">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P15">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q15">
-        <v>6.2194671881732</v>
+        <v>5.292750600293332</v>
       </c>
       <c r="R15">
-        <v>6.2194671881732</v>
+        <v>47.63475540264</v>
       </c>
       <c r="S15">
-        <v>0.01230864091749457</v>
+        <v>0.008036671379873498</v>
       </c>
       <c r="T15">
-        <v>0.01230864091749457</v>
+        <v>0.008036671379873499</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H16">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I16">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J16">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N16">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O16">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P16">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q16">
-        <v>43.69678045043149</v>
+        <v>37.44828412294666</v>
       </c>
       <c r="R16">
-        <v>43.69678045043149</v>
+        <v>337.03455710652</v>
       </c>
       <c r="S16">
-        <v>0.08647814411461441</v>
+        <v>0.05686259866837044</v>
       </c>
       <c r="T16">
-        <v>0.08647814411461441</v>
+        <v>0.05686259866837046</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H17">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I17">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J17">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N17">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O17">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P17">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q17">
-        <v>60.36147394550748</v>
+        <v>49.62882489161333</v>
       </c>
       <c r="R17">
-        <v>60.36147394550748</v>
+        <v>446.65942402452</v>
       </c>
       <c r="S17">
-        <v>0.1194584175086198</v>
+        <v>0.07535789738535524</v>
       </c>
       <c r="T17">
-        <v>0.1194584175086198</v>
+        <v>0.07535789738535525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H18">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I18">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J18">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N18">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O18">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P18">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q18">
-        <v>27.01909015869525</v>
+        <v>22.45116241935</v>
       </c>
       <c r="R18">
-        <v>27.01909015869525</v>
+        <v>202.06046177415</v>
       </c>
       <c r="S18">
-        <v>0.05347214940102837</v>
+        <v>0.03409051891666343</v>
       </c>
       <c r="T18">
-        <v>0.05347214940102837</v>
+        <v>0.03409051891666343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.58606592384273</v>
+        <v>2.09867</v>
       </c>
       <c r="H19">
-        <v>2.58606592384273</v>
+        <v>6.29601</v>
       </c>
       <c r="I19">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="J19">
-        <v>0.2931472074931249</v>
+        <v>0.1902887488147774</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.996332114094014</v>
+        <v>1.149381666666667</v>
       </c>
       <c r="N19">
-        <v>0.996332114094014</v>
+        <v>3.448145</v>
       </c>
       <c r="O19">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="P19">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="Q19">
-        <v>2.576580529088717</v>
+        <v>2.412172822383333</v>
       </c>
       <c r="R19">
-        <v>2.576580529088717</v>
+        <v>21.70955540145</v>
       </c>
       <c r="S19">
-        <v>0.005099183510103277</v>
+        <v>0.003662715617826848</v>
       </c>
       <c r="T19">
-        <v>0.005099183510103277</v>
+        <v>0.003662715617826849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.58072161234013</v>
+        <v>2.711953</v>
       </c>
       <c r="H20">
-        <v>3.58072161234013</v>
+        <v>8.135859</v>
       </c>
       <c r="I20">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="J20">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N20">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O20">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P20">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q20">
-        <v>11.42557595998884</v>
+        <v>10.44920191618533</v>
       </c>
       <c r="R20">
-        <v>11.42557595998884</v>
+        <v>94.042817245668</v>
       </c>
       <c r="S20">
-        <v>0.02261179414765401</v>
+        <v>0.01586638183512215</v>
       </c>
       <c r="T20">
-        <v>0.02261179414765401</v>
+        <v>0.01586638183512215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.58072161234013</v>
+        <v>2.711953</v>
       </c>
       <c r="H21">
-        <v>3.58072161234013</v>
+        <v>8.135859</v>
       </c>
       <c r="I21">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="J21">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N21">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O21">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P21">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q21">
-        <v>8.611605904013459</v>
+        <v>6.839422524130665</v>
       </c>
       <c r="R21">
-        <v>8.611605904013459</v>
+        <v>61.554802717176</v>
       </c>
       <c r="S21">
-        <v>0.01704280472723447</v>
+        <v>0.01038518445427917</v>
       </c>
       <c r="T21">
-        <v>0.01704280472723447</v>
+        <v>0.01038518445427918</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.58072161234013</v>
+        <v>2.711953</v>
       </c>
       <c r="H22">
-        <v>3.58072161234013</v>
+        <v>8.135859</v>
       </c>
       <c r="I22">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="J22">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N22">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O22">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P22">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q22">
-        <v>60.50348705575269</v>
+        <v>48.39159394858532</v>
       </c>
       <c r="R22">
-        <v>60.50348705575269</v>
+        <v>435.5243455372679</v>
       </c>
       <c r="S22">
-        <v>0.1197394686544331</v>
+        <v>0.07347924878446027</v>
       </c>
       <c r="T22">
-        <v>0.1197394686544331</v>
+        <v>0.0734792487844603</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.58072161234013</v>
+        <v>2.711953</v>
       </c>
       <c r="H23">
-        <v>3.58072161234013</v>
+        <v>8.135859</v>
       </c>
       <c r="I23">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="J23">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N23">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O23">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P23">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q23">
-        <v>83.57777437793136</v>
+        <v>64.13158836371866</v>
       </c>
       <c r="R23">
-        <v>83.57777437793136</v>
+        <v>577.184295273468</v>
       </c>
       <c r="S23">
-        <v>0.1654046532245628</v>
+        <v>0.09737932875959837</v>
       </c>
       <c r="T23">
-        <v>0.1654046532245628</v>
+        <v>0.09737932875959839</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.58072161234013</v>
+        <v>2.711953</v>
       </c>
       <c r="H24">
-        <v>3.58072161234013</v>
+        <v>8.135859</v>
       </c>
       <c r="I24">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="J24">
-        <v>0.4058978279672133</v>
+        <v>0.2458958022054358</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N24">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O24">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P24">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q24">
-        <v>37.41120409384052</v>
+        <v>29.011944363165</v>
       </c>
       <c r="R24">
-        <v>37.41120409384052</v>
+        <v>261.107499268485</v>
       </c>
       <c r="S24">
-        <v>0.07403866980081932</v>
+        <v>0.0440526071500532</v>
       </c>
       <c r="T24">
-        <v>0.07403866980081932</v>
+        <v>0.0440526071500532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.711953</v>
+      </c>
+      <c r="H25">
+        <v>8.135859</v>
+      </c>
+      <c r="I25">
+        <v>0.2458958022054358</v>
+      </c>
+      <c r="J25">
+        <v>0.2458958022054358</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.448145</v>
+      </c>
+      <c r="O25">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="P25">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="Q25">
+        <v>3.117069059061667</v>
+      </c>
+      <c r="R25">
+        <v>28.053621531555</v>
+      </c>
+      <c r="S25">
+        <v>0.004733051221922634</v>
+      </c>
+      <c r="T25">
+        <v>0.004733051221922635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.758422</v>
+      </c>
+      <c r="H26">
+        <v>11.275266</v>
+      </c>
+      <c r="I26">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J26">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.853017333333334</v>
+      </c>
+      <c r="N26">
+        <v>11.559052</v>
+      </c>
+      <c r="O26">
+        <v>0.06452481780012836</v>
+      </c>
+      <c r="P26">
+        <v>0.06452481780012838</v>
+      </c>
+      <c r="Q26">
+        <v>14.48126511198133</v>
+      </c>
+      <c r="R26">
+        <v>130.331386007832</v>
+      </c>
+      <c r="S26">
+        <v>0.02198878761893125</v>
+      </c>
+      <c r="T26">
+        <v>0.02198878761893125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.758422</v>
+      </c>
+      <c r="H27">
+        <v>11.275266</v>
+      </c>
+      <c r="I27">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J27">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.521954666666666</v>
+      </c>
+      <c r="N27">
+        <v>7.565863999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.04223408598737598</v>
+      </c>
+      <c r="P27">
+        <v>0.04223408598737599</v>
+      </c>
+      <c r="Q27">
+        <v>9.478569902202665</v>
+      </c>
+      <c r="R27">
+        <v>85.307129119824</v>
+      </c>
+      <c r="S27">
+        <v>0.01439254505038282</v>
+      </c>
+      <c r="T27">
+        <v>0.01439254505038282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.758422</v>
+      </c>
+      <c r="H28">
+        <v>11.275266</v>
+      </c>
+      <c r="I28">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J28">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.84381733333333</v>
+      </c>
+      <c r="N28">
+        <v>53.53145199999999</v>
+      </c>
+      <c r="O28">
+        <v>0.2988227050865691</v>
+      </c>
+      <c r="P28">
+        <v>0.2988227050865692</v>
+      </c>
+      <c r="Q28">
+        <v>67.06459562958132</v>
+      </c>
+      <c r="R28">
+        <v>603.5813606662319</v>
+      </c>
+      <c r="S28">
+        <v>0.1018328950298876</v>
+      </c>
+      <c r="T28">
+        <v>0.1018328950298876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.758422</v>
+      </c>
+      <c r="H29">
+        <v>11.275266</v>
+      </c>
+      <c r="I29">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J29">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.64775066666667</v>
+      </c>
+      <c r="N29">
+        <v>70.943252</v>
+      </c>
+      <c r="O29">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="P29">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="Q29">
+        <v>88.87822635611467</v>
+      </c>
+      <c r="R29">
+        <v>799.9040372050321</v>
+      </c>
+      <c r="S29">
+        <v>0.1349553666878841</v>
+      </c>
+      <c r="T29">
+        <v>0.1349553666878841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.758422</v>
+      </c>
+      <c r="H30">
+        <v>11.275266</v>
+      </c>
+      <c r="I30">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J30">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.697805</v>
+      </c>
+      <c r="N30">
+        <v>32.093415</v>
+      </c>
+      <c r="O30">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="P30">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="Q30">
+        <v>40.20686566371</v>
+      </c>
+      <c r="R30">
+        <v>361.86179097339</v>
+      </c>
+      <c r="S30">
+        <v>0.06105131168206723</v>
+      </c>
+      <c r="T30">
+        <v>0.06105131168206722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.58072161234013</v>
-      </c>
-      <c r="H25">
-        <v>3.58072161234013</v>
-      </c>
-      <c r="I25">
-        <v>0.4058978279672133</v>
-      </c>
-      <c r="J25">
-        <v>0.4058978279672133</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.996332114094014</v>
-      </c>
-      <c r="N25">
-        <v>0.996332114094014</v>
-      </c>
-      <c r="O25">
-        <v>0.01739461737912979</v>
-      </c>
-      <c r="P25">
-        <v>0.01739461737912979</v>
-      </c>
-      <c r="Q25">
-        <v>3.567587934004969</v>
-      </c>
-      <c r="R25">
-        <v>3.567587934004969</v>
-      </c>
-      <c r="S25">
-        <v>0.007060437412509521</v>
-      </c>
-      <c r="T25">
-        <v>0.007060437412509521</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.758422</v>
+      </c>
+      <c r="H31">
+        <v>11.275266</v>
+      </c>
+      <c r="I31">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="J31">
+        <v>0.3407803131973742</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="N31">
+        <v>3.448145</v>
+      </c>
+      <c r="O31">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="P31">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="Q31">
+        <v>4.319861342396667</v>
+      </c>
+      <c r="R31">
+        <v>38.87875208157001</v>
+      </c>
+      <c r="S31">
+        <v>0.006559407128221216</v>
+      </c>
+      <c r="T31">
+        <v>0.006559407128221216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.399306</v>
+      </c>
+      <c r="I32">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J32">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.853017333333334</v>
+      </c>
+      <c r="N32">
+        <v>11.559052</v>
+      </c>
+      <c r="O32">
+        <v>0.06452481780012836</v>
+      </c>
+      <c r="P32">
+        <v>0.06452481780012838</v>
+      </c>
+      <c r="Q32">
+        <v>1.797183424212444</v>
+      </c>
+      <c r="R32">
+        <v>16.174650817912</v>
+      </c>
+      <c r="S32">
+        <v>0.002728897255984578</v>
+      </c>
+      <c r="T32">
+        <v>0.002728897255984579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.399306</v>
+      </c>
+      <c r="I33">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J33">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.521954666666666</v>
+      </c>
+      <c r="N33">
+        <v>7.565863999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.04223408598737598</v>
+      </c>
+      <c r="P33">
+        <v>0.04223408598737599</v>
+      </c>
+      <c r="Q33">
+        <v>1.176328765598222</v>
+      </c>
+      <c r="R33">
+        <v>10.586958890384</v>
+      </c>
+      <c r="S33">
+        <v>0.001786172906632179</v>
+      </c>
+      <c r="T33">
+        <v>0.001786172906632179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.399306</v>
+      </c>
+      <c r="I34">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J34">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.84381733333333</v>
+      </c>
+      <c r="N34">
+        <v>53.53145199999999</v>
+      </c>
+      <c r="O34">
+        <v>0.2988227050865691</v>
+      </c>
+      <c r="P34">
+        <v>0.2988227050865692</v>
+      </c>
+      <c r="Q34">
+        <v>8.322986885812442</v>
+      </c>
+      <c r="R34">
+        <v>74.90688197231199</v>
+      </c>
+      <c r="S34">
+        <v>0.01263787311205712</v>
+      </c>
+      <c r="T34">
+        <v>0.01263787311205713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.399306</v>
+      </c>
+      <c r="I35">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J35">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.64775066666667</v>
+      </c>
+      <c r="N35">
+        <v>70.943252</v>
+      </c>
+      <c r="O35">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="P35">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="Q35">
+        <v>11.03014646479022</v>
+      </c>
+      <c r="R35">
+        <v>99.271318183112</v>
+      </c>
+      <c r="S35">
+        <v>0.01674850547548557</v>
+      </c>
+      <c r="T35">
+        <v>0.01674850547548557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.399306</v>
+      </c>
+      <c r="I36">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J36">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.697805</v>
+      </c>
+      <c r="N36">
+        <v>32.093415</v>
+      </c>
+      <c r="O36">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="P36">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="Q36">
+        <v>4.989834241110001</v>
+      </c>
+      <c r="R36">
+        <v>44.90850816999</v>
+      </c>
+      <c r="S36">
+        <v>0.007576714087684206</v>
+      </c>
+      <c r="T36">
+        <v>0.007576714087684206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.4664353333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.399306</v>
+      </c>
+      <c r="I37">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="J37">
+        <v>0.04229221172599962</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="N37">
+        <v>3.448145</v>
+      </c>
+      <c r="O37">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="P37">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="Q37">
+        <v>0.5361122208188889</v>
+      </c>
+      <c r="R37">
+        <v>4.825009987370001</v>
+      </c>
+      <c r="S37">
+        <v>0.0008140488881559615</v>
+      </c>
+      <c r="T37">
+        <v>0.0008140488881559617</v>
       </c>
     </row>
   </sheetData>
